--- a/test1_kabkota.xlsx
+++ b/test1_kabkota.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Tugas Perkuliahan DSAI (Shared)\[DSC5303] Analisis Data Spatial-Temporal\Rencana Buku - Urban Informatics\Kelompok 1 - Data Spatial Open Data\STREAMLIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835FA0AF-D0C4-4CBD-919C-63376C9D1447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767BFF30-FF62-472A-98E9-3498BBDEEC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>kabkota</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>minang</t>
+  </si>
+  <si>
+    <t>assahan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">itali </t>
   </si>
 </sst>
 </file>
@@ -390,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,6 +492,17 @@
         <v>2021</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>2022</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
